--- a/inst/extdata/study_data_messy.xlsx
+++ b/inst/extdata/study_data_messy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityhealthnetwork-my.sharepoint.com/personal/lisa_avery_uhn_ca/Documents/Rpackages/importExcel/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="8_{14EE45BB-347F-D642-9F00-FF8D23CE1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E840EA3-6422-B848-A9EA-0F0460D084F9}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="8_{14EE45BB-347F-D642-9F00-FF8D23CE1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDA65EE-6031-FC4B-B20A-E18C3BC07F0B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="51200" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Data Checks:
-All codes must be supplied in a separate data dictionary</t>
+          <t xml:space="preserve">Data Checks:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>All codes must be supplied in a separate data dictionary</t>
         </r>
       </text>
     </comment>
@@ -62,8 +71,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Data Checks:
-Text in numeric column</t>
+          <t xml:space="preserve">Data Checks:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text in numeric column</t>
         </r>
       </text>
     </comment>
@@ -72,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="339">
   <si>
     <t>studyID</t>
   </si>
@@ -623,9 +641,6 @@
     <t>Feb-24-2023</t>
   </si>
   <si>
-    <t>Jan-07-2021</t>
-  </si>
-  <si>
     <t>May-14-2023</t>
   </si>
   <si>
@@ -659,9 +674,6 @@
     <t>Oct-15-2023</t>
   </si>
   <si>
-    <t>Nov-10-2020</t>
-  </si>
-  <si>
     <t>Feb-18-2023</t>
   </si>
   <si>
@@ -707,9 +719,6 @@
     <t>28-May-2023</t>
   </si>
   <si>
-    <t>05-Feb-2023</t>
-  </si>
-  <si>
     <t>Jul-09-2023</t>
   </si>
   <si>
@@ -761,9 +770,6 @@
     <t>Nov-01-2023</t>
   </si>
   <si>
-    <t>19-Nov-2023</t>
-  </si>
-  <si>
     <t>02-Mar-2023</t>
   </si>
   <si>
@@ -773,9 +779,6 @@
     <t>18-Apr-2023</t>
   </si>
   <si>
-    <t>Jan-08-2020</t>
-  </si>
-  <si>
     <t>17-Sep-2021</t>
   </si>
   <si>
@@ -785,9 +788,6 @@
     <t>Sep-17-2020</t>
   </si>
   <si>
-    <t>Jun-24-2021</t>
-  </si>
-  <si>
     <t>29-Mar-2023</t>
   </si>
   <si>
@@ -968,9 +968,6 @@
     <t>30-Sep-2023</t>
   </si>
   <si>
-    <t>24-Jan-2020</t>
-  </si>
-  <si>
     <t>Jul-06-2023</t>
   </si>
   <si>
@@ -1095,6 +1092,21 @@
   </si>
   <si>
     <t>diagnosis2</t>
+  </si>
+  <si>
+    <t>3-5-2017</t>
+  </si>
+  <si>
+    <t>05-03-2020</t>
+  </si>
+  <si>
+    <t>Jan-08-2030</t>
+  </si>
+  <si>
+    <t>10 nv 2016</t>
+  </si>
+  <si>
+    <t>nt a date</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1503,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1608,7 +1622,7 @@
         <v>134</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H3" s="7">
         <v>1</v>
@@ -1784,7 +1798,7 @@
         <v>141</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2133,7 +2147,7 @@
         <v>63</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>156</v>
@@ -2748,11 +2762,9 @@
       <c r="E29" s="7">
         <v>87</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2793,10 +2805,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2837,10 +2849,10 @@
         <v>66</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -2881,10 +2893,10 @@
         <v>79</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2925,10 +2937,10 @@
         <v>77</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2969,10 +2981,10 @@
         <v>88</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3013,10 +3025,10 @@
         <v>76</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3057,10 +3069,10 @@
         <v>92</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3101,10 +3113,10 @@
         <v>61</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3145,10 +3157,10 @@
         <v>61</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3189,10 +3201,10 @@
         <v>72</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -3233,10 +3245,10 @@
         <v>83</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3277,10 +3289,10 @@
         <v>62</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3292,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L41" s="7">
         <v>2</v>
@@ -3321,10 +3333,10 @@
         <v>77</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3365,10 +3377,10 @@
         <v>61</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>211</v>
+        <v>334</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3409,10 +3421,10 @@
         <v>96</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3424,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7">
         <v>3</v>
@@ -3453,10 +3465,10 @@
         <v>71</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
@@ -3497,10 +3509,10 @@
         <v>72</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3541,10 +3553,10 @@
         <v>65</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3585,10 +3597,10 @@
         <v>97</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3629,10 +3641,10 @@
         <v>75</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H49" s="7">
         <v>3</v>
@@ -3673,10 +3685,10 @@
         <v>94</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3717,10 +3729,10 @@
         <v>95</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H51" s="7">
         <v>2</v>
@@ -3761,10 +3773,10 @@
         <v>86</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3805,10 +3817,10 @@
         <v>86</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H53" s="7">
         <v>3</v>
@@ -3849,7 +3861,7 @@
         <v>94</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>146</v>
@@ -3893,10 +3905,10 @@
         <v>82</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -3937,10 +3949,10 @@
         <v>62</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -3981,10 +3993,10 @@
         <v>90</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -4025,10 +4037,10 @@
         <v>61</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4069,10 +4081,10 @@
         <v>82</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4113,10 +4125,10 @@
         <v>62</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -4157,10 +4169,10 @@
         <v>68</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4201,10 +4213,10 @@
         <v>98</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
@@ -4245,10 +4257,10 @@
         <v>89</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H63" s="7">
         <v>2</v>
@@ -4289,10 +4301,10 @@
         <v>90</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4333,10 +4345,10 @@
         <v>89</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
@@ -4377,10 +4389,10 @@
         <v>68</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -4421,10 +4433,10 @@
         <v>95</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H67" s="7">
         <v>2</v>
@@ -4465,10 +4477,10 @@
         <v>93</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -4509,10 +4521,10 @@
         <v>81</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -4553,10 +4565,10 @@
         <v>100</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -4597,10 +4609,10 @@
         <v>87</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -4641,10 +4653,10 @@
         <v>88</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -4685,10 +4697,10 @@
         <v>98</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H73" s="7">
         <v>2</v>
@@ -4729,10 +4741,10 @@
         <v>96</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H74" s="7">
         <v>3</v>
@@ -4773,10 +4785,10 @@
         <v>92</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
@@ -4817,10 +4829,10 @@
         <v>78</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -4861,10 +4873,10 @@
         <v>71</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H77" s="7">
         <v>3</v>
@@ -4905,10 +4917,10 @@
         <v>93</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H78" s="7">
         <v>3</v>
@@ -4949,10 +4961,10 @@
         <v>80</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H79" s="7">
         <v>0</v>
@@ -4993,10 +5005,10 @@
         <v>76</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H80" s="7">
         <v>2</v>
@@ -5037,10 +5049,10 @@
         <v>71</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H81" s="7">
         <v>3</v>
@@ -5081,10 +5093,10 @@
         <v>89</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H82" s="7">
         <v>3</v>
@@ -5125,10 +5137,10 @@
         <v>94</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -5169,10 +5181,10 @@
         <v>89</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
@@ -5213,10 +5225,10 @@
         <v>84</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -5257,10 +5269,10 @@
         <v>62</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -5301,10 +5313,10 @@
         <v>77</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H87" s="7">
         <v>3</v>
@@ -5345,10 +5357,10 @@
         <v>91</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
@@ -5389,10 +5401,10 @@
         <v>76</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -5433,10 +5445,10 @@
         <v>97</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H90" s="7">
         <v>0</v>
@@ -5476,11 +5488,11 @@
       <c r="E91" s="7">
         <v>99</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>298</v>
+      <c r="F91" s="8">
+        <v>51159</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H91" s="7">
         <v>3</v>
@@ -5521,10 +5533,10 @@
         <v>91</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -5565,10 +5577,10 @@
         <v>85</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H93" s="7">
         <v>3</v>
@@ -5609,10 +5621,10 @@
         <v>72</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H94" s="7">
         <v>2</v>
@@ -5653,10 +5665,10 @@
         <v>79</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -5697,10 +5709,10 @@
         <v>97</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -5741,10 +5753,10 @@
         <v>79</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H97" s="7">
         <v>0</v>
@@ -5785,10 +5797,10 @@
         <v>88</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H98" s="7">
         <v>3</v>
@@ -5829,10 +5841,10 @@
         <v>79</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H99" s="7">
         <v>3</v>
@@ -5873,10 +5885,10 @@
         <v>89</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H100" s="7">
         <v>1</v>
@@ -5917,10 +5929,10 @@
         <v>100</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H101" s="7">
         <v>3</v>
@@ -5956,7 +5968,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -6009,7 +6021,7 @@
         <v>123</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6023,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6040,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>124</v>
@@ -6072,7 +6084,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>126</v>
@@ -6132,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>124</v>
@@ -6266,7 +6278,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>126</v>
@@ -6358,7 +6370,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>126</v>
@@ -6367,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -6381,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -6389,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -6409,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K21">
         <v>13</v>
@@ -6423,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -6431,7 +6443,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -6439,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -6447,10 +6459,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>126</v>
@@ -6459,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -6473,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -6481,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -6489,7 +6501,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/study_data_messy.xlsx
+++ b/inst/extdata/study_data_messy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityhealthnetwork-my.sharepoint.com/personal/lisa_avery_uhn_ca/Documents/Rpackages/importExcel/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="8_{14EE45BB-347F-D642-9F00-FF8D23CE1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDA65EE-6031-FC4B-B20A-E18C3BC07F0B}"/>
+  <xr:revisionPtr revIDLastSave="340" documentId="8_{14EE45BB-347F-D642-9F00-FF8D23CE1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3735BC0D-7FB6-674A-9E44-A8569D5D60A5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="51200" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,30 @@
     <author>Lisa Avery</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{552B0B8D-4C8F-B040-B1DC-85883A7006C0}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{87B5756B-2738-7A47-9B24-165938258789}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data Checks:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Only one header row is permitted, with no special characters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CC65F613-52E9-3C4A-9248-EE961DE9B948}">
       <text>
         <r>
           <rPr>
@@ -62,7 +85,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{591C61BE-A238-2D44-BA69-E321D9A0B047}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F798B440-724A-E34E-9ED0-09CEFBD1BB84}">
+      <text/>
+    </comment>
+    <comment ref="K42" authorId="0" shapeId="0" xr:uid="{4C356C7C-91AE-3E49-978F-D808BE304C4D}">
       <text>
         <r>
           <rPr>
@@ -1154,12 +1180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1189,11 +1221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1201,9 +1231,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,4458 +1535,4461 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="7"/>
-    <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="10" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="6">
         <v>48</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>33</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="6">
         <v>100</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>73</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>3</v>
-      </c>
-      <c r="M2" s="7">
-        <v>3</v>
-      </c>
-      <c r="N2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="6">
         <v>32</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>19.5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="6">
         <v>79</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
         <v>42</v>
       </c>
-      <c r="L3" s="7">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="L4" s="6">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="6">
         <v>68</v>
       </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
         <v>33.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E5" s="6">
         <v>65</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
         <v>78</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="5">
         <v>4</v>
       </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
         <v>4</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
         <v>26.1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="6">
         <v>89</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>86</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="5">
         <v>84</v>
       </c>
-      <c r="L5" s="7">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="6">
         <v>4</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B7" s="6">
         <v>20</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
         <v>27.3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="6">
         <v>90</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>98</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="5">
         <v>94</v>
       </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
         <v>4</v>
       </c>
-      <c r="N6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="6">
         <v>59</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>36.200000000000003</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="6">
         <v>88</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
         <v>65</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="5">
         <v>99</v>
       </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="6">
         <v>67</v>
       </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
         <v>38.299999999999997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="6">
         <v>76</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
         <v>69</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="5">
         <v>26</v>
       </c>
-      <c r="L8" s="7">
-        <v>2</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="L9" s="6">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>3</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="6">
         <v>60</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>24.6</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="6">
         <v>96</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>58</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="5">
         <v>22</v>
       </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="6">
         <v>54</v>
       </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
         <v>39.200000000000003</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="6">
         <v>79</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>46</v>
       </c>
-      <c r="K10" s="2">
-        <v>2</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3</v>
+      </c>
+      <c r="N11" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="6">
         <v>69</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="6">
         <v>94</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>8</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="5">
         <v>14</v>
       </c>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="6">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
         <v>33.299999999999997</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="6">
         <v>84</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>22</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="5">
         <v>57</v>
       </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="6">
         <v>42</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="6">
         <v>92</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>24</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="5">
         <v>6</v>
       </c>
-      <c r="L13" s="7">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
         <v>4</v>
       </c>
-      <c r="N13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="N14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="6">
         <v>43</v>
       </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
         <v>27</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="6">
         <v>61</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>14</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="5">
         <v>33</v>
       </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16" s="6">
         <v>44</v>
       </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
         <v>28.8</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="6">
         <v>63</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <v>85</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="5">
         <v>30</v>
       </c>
-      <c r="L15" s="7">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="L16" s="6">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="6">
         <v>22</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
         <v>30.5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="6">
         <v>69</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="H17" s="6">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>71</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="5">
         <v>81</v>
       </c>
-      <c r="L16" s="7">
-        <v>3</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="L17" s="6">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="6">
         <v>68</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
         <v>33.5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="6">
         <v>92</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <v>92</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="5">
         <v>17</v>
       </c>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7">
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
         <v>4</v>
       </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="6">
         <v>44</v>
       </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
         <v>38.200000000000003</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="6">
         <v>64</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <v>20</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="5">
         <v>98</v>
       </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
-        <v>3</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="6">
         <v>45</v>
       </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
         <v>31.8</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="6">
         <v>84</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
         <v>47</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K20" s="5">
         <v>45</v>
       </c>
-      <c r="L19" s="7">
-        <v>3</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="L20" s="6">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="6">
         <v>26</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
         <v>27.7</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="6">
         <v>67</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>72</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="5">
         <v>8</v>
       </c>
-      <c r="L20" s="7">
-        <v>2</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="L21" s="6">
+        <v>2</v>
+      </c>
+      <c r="M21" s="6">
+        <v>2</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="6">
         <v>46</v>
       </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
         <v>30.2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="6">
         <v>84</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="H22" s="6">
+        <v>3</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
         <v>97</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="5">
         <v>78</v>
       </c>
-      <c r="L21" s="7">
-        <v>2</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="L22" s="6">
+        <v>2</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="6">
         <v>52</v>
       </c>
-      <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
         <v>19.8</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="6">
         <v>80</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
         <v>42</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="5">
         <v>16</v>
       </c>
-      <c r="L22" s="7">
-        <v>3</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="L23" s="6">
+        <v>3</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24" s="6">
         <v>25</v>
       </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
         <v>24.1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="6">
         <v>77</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
         <v>55</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="5">
         <v>6</v>
       </c>
-      <c r="L23" s="7">
-        <v>3</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="L24" s="6">
+        <v>3</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="6">
         <v>43</v>
       </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
         <v>27</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="6">
         <v>90</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
         <v>74</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="5">
         <v>93</v>
       </c>
-      <c r="L24" s="7">
-        <v>2</v>
-      </c>
-      <c r="M24" s="7">
-        <v>3</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="L25" s="6">
+        <v>2</v>
+      </c>
+      <c r="M25" s="6">
+        <v>3</v>
+      </c>
+      <c r="N25" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6">
         <v>22.8</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="6">
         <v>65</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
-        <v>3</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="H26" s="6">
+        <v>3</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
         <v>7</v>
       </c>
-      <c r="L25" s="7">
-        <v>3</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
+      <c r="L26" s="6">
+        <v>3</v>
+      </c>
+      <c r="M26" s="6">
+        <v>3</v>
+      </c>
+      <c r="N26" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="6">
         <v>59</v>
       </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
         <v>36.4</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="6">
         <v>66</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
         <v>70</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="5">
         <v>64</v>
       </c>
-      <c r="L26" s="7">
-        <v>3</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="L27" s="6">
+        <v>3</v>
+      </c>
+      <c r="M27" s="6">
+        <v>3</v>
+      </c>
+      <c r="N27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
         <v>21.8</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="6">
         <v>100</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
         <v>55</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="5">
         <v>8</v>
       </c>
-      <c r="L27" s="7">
-        <v>1</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
         <v>4</v>
       </c>
-      <c r="N27" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="N28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="6">
         <v>36</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
         <v>35.799999999999997</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="6">
         <v>76</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="H29" s="6">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
         <v>49</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="5">
         <v>98</v>
       </c>
-      <c r="L28" s="7">
-        <v>2</v>
-      </c>
-      <c r="M28" s="7">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="L29" s="6">
+        <v>2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>2</v>
+      </c>
+      <c r="N29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="6">
         <v>53</v>
       </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6">
         <v>30.3</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="6">
         <v>87</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
         <v>10</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K30" s="5">
         <v>24</v>
       </c>
-      <c r="L29" s="7">
-        <v>2</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
+      <c r="L30" s="6">
+        <v>2</v>
+      </c>
+      <c r="M30" s="6">
+        <v>3</v>
+      </c>
+      <c r="N30" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="6">
         <v>31</v>
       </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="6">
         <v>99</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
         <v>96</v>
       </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="7">
-        <v>2</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3</v>
-      </c>
-      <c r="N30" s="7">
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2</v>
+      </c>
+      <c r="M31" s="6">
+        <v>3</v>
+      </c>
+      <c r="N31" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="6">
         <v>34</v>
       </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
         <v>22.2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="6">
         <v>66</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="H32" s="6">
+        <v>3</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
         <v>74</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="5">
         <v>10</v>
       </c>
-      <c r="L31" s="7">
-        <v>2</v>
-      </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="L32" s="6">
+        <v>2</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2</v>
+      </c>
+      <c r="N32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="6">
         <v>60</v>
       </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
         <v>32.1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="6">
         <v>79</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
         <v>59</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="5">
         <v>67</v>
       </c>
-      <c r="L32" s="7">
-        <v>1</v>
-      </c>
-      <c r="M32" s="7">
-        <v>3</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="M33" s="6">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B34" s="6">
         <v>56</v>
       </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
         <v>25.2</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="6">
         <v>77</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="H34" s="6">
+        <v>2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
         <v>84</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K34" s="5">
         <v>39</v>
       </c>
-      <c r="L33" s="7">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="6">
         <v>70</v>
       </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
         <v>34.1</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="6">
         <v>88</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="7">
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="H35" s="6">
+        <v>3</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
         <v>73</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K35" s="5">
         <v>19</v>
       </c>
-      <c r="L34" s="7">
-        <v>2</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="L35" s="6">
+        <v>2</v>
+      </c>
+      <c r="M35" s="6">
+        <v>3</v>
+      </c>
+      <c r="N35" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="6">
         <v>29</v>
       </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
         <v>27.1</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="6">
         <v>76</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
         <v>66</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K36" s="5">
         <v>10</v>
       </c>
-      <c r="L35" s="7">
-        <v>2</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3</v>
-      </c>
-      <c r="N35" s="7">
+      <c r="L36" s="6">
+        <v>2</v>
+      </c>
+      <c r="M36" s="6">
+        <v>3</v>
+      </c>
+      <c r="N36" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="6">
         <v>32</v>
       </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
         <v>39.299999999999997</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="6">
         <v>92</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6">
         <v>98</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K37" s="5">
         <v>17</v>
       </c>
-      <c r="L36" s="7">
-        <v>1</v>
-      </c>
-      <c r="M36" s="7">
-        <v>3</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
+        <v>3</v>
+      </c>
+      <c r="N37" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B38" s="6">
         <v>49</v>
       </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6">
         <v>39.299999999999997</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="6">
         <v>61</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
         <v>97</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K38" s="5">
         <v>53</v>
       </c>
-      <c r="L37" s="7">
-        <v>3</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="L38" s="6">
+        <v>3</v>
+      </c>
+      <c r="M38" s="6">
+        <v>2</v>
+      </c>
+      <c r="N38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B39" s="6">
         <v>59</v>
       </c>
-      <c r="C38" s="7">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
         <v>34.1</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="6">
         <v>61</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H38" s="7">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
         <v>57</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K39" s="5">
         <v>13</v>
       </c>
-      <c r="L38" s="7">
-        <v>1</v>
-      </c>
-      <c r="M38" s="7">
-        <v>2</v>
-      </c>
-      <c r="N38" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="L39" s="6">
+        <v>1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B40" s="6">
         <v>62</v>
       </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
         <v>24</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="6">
         <v>72</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H39" s="7">
-        <v>2</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
         <v>39</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K40" s="5">
         <v>66</v>
       </c>
-      <c r="L39" s="7">
-        <v>3</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1</v>
-      </c>
-      <c r="N39" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="L40" s="6">
+        <v>3</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1</v>
+      </c>
+      <c r="N40" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="6">
         <v>24</v>
       </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
         <v>23.3</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="6">
         <v>83</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
         <v>91</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K41" s="5">
         <v>91</v>
       </c>
-      <c r="L40" s="7">
-        <v>3</v>
-      </c>
-      <c r="M40" s="7">
-        <v>1</v>
-      </c>
-      <c r="N40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="L41" s="6">
+        <v>3</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B42" s="6">
         <v>26</v>
       </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
         <v>31.3</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="6">
         <v>62</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
         <v>12</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K42" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="L41" s="7">
-        <v>2</v>
-      </c>
-      <c r="M41" s="7">
-        <v>3</v>
-      </c>
-      <c r="N41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="L42" s="6">
+        <v>2</v>
+      </c>
+      <c r="M42" s="6">
+        <v>3</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B43" s="6">
         <v>58</v>
       </c>
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6">
         <v>24.3</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="6">
         <v>77</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H42" s="7">
-        <v>3</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="H43" s="6">
+        <v>3</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
         <v>7</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K43" s="5">
         <v>91</v>
       </c>
-      <c r="L42" s="7">
-        <v>3</v>
-      </c>
-      <c r="M42" s="7">
-        <v>2</v>
-      </c>
-      <c r="N42" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="L43" s="6">
+        <v>3</v>
+      </c>
+      <c r="M43" s="6">
+        <v>2</v>
+      </c>
+      <c r="N43" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B44" s="6">
         <v>27</v>
       </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
         <v>29.9</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="6">
         <v>61</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1</v>
-      </c>
-      <c r="J43" s="7">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
         <v>92</v>
       </c>
-      <c r="L43" s="7">
-        <v>3</v>
-      </c>
-      <c r="M43" s="7">
+      <c r="L44" s="6">
+        <v>3</v>
+      </c>
+      <c r="M44" s="6">
         <v>4</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N44" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B45" s="6">
         <v>40</v>
       </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
         <v>35.4</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="6">
         <v>96</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="7">
-        <v>3</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1</v>
-      </c>
-      <c r="J44" s="7">
+      <c r="H45" s="6">
+        <v>3</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6">
         <v>5</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K45" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="L44" s="7">
-        <v>3</v>
-      </c>
-      <c r="M44" s="7">
+      <c r="L45" s="6">
+        <v>3</v>
+      </c>
+      <c r="M45" s="6">
         <v>4</v>
       </c>
-      <c r="N44" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="N45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B46" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
         <v>22.1</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="6">
         <v>71</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H45" s="7">
-        <v>3</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
+      <c r="H46" s="6">
+        <v>3</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
         <v>86</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K46" s="5">
         <v>22</v>
       </c>
-      <c r="L45" s="7">
-        <v>1</v>
-      </c>
-      <c r="M45" s="7">
-        <v>3</v>
-      </c>
-      <c r="N45" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
+      <c r="M46" s="6">
+        <v>3</v>
+      </c>
+      <c r="N46" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B47" s="6">
         <v>70</v>
       </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
         <v>27.2</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="6">
         <v>72</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="7">
-        <v>2</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7">
+      <c r="H47" s="6">
+        <v>2</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
         <v>16</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K47" s="5">
         <v>78</v>
       </c>
-      <c r="L46" s="7">
-        <v>3</v>
-      </c>
-      <c r="M46" s="7">
-        <v>3</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="L47" s="6">
+        <v>3</v>
+      </c>
+      <c r="M47" s="6">
+        <v>3</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B48" s="6">
         <v>24</v>
       </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
         <v>28.6</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="6">
         <v>65</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H47" s="7">
-        <v>3</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="H48" s="6">
+        <v>3</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6">
         <v>31</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K48" s="5">
         <v>86</v>
       </c>
-      <c r="L47" s="7">
-        <v>1</v>
-      </c>
-      <c r="M47" s="7">
+      <c r="L48" s="6">
+        <v>1</v>
+      </c>
+      <c r="M48" s="6">
         <v>4</v>
       </c>
-      <c r="N47" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="N48" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B49" s="6">
         <v>70</v>
       </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
         <v>37.200000000000003</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="6">
         <v>97</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6">
         <v>77</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K49" s="5">
         <v>87</v>
       </c>
-      <c r="L48" s="7">
-        <v>3</v>
-      </c>
-      <c r="M48" s="7">
-        <v>1</v>
-      </c>
-      <c r="N48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="L49" s="6">
+        <v>3</v>
+      </c>
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+      <c r="N49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B50" s="6">
         <v>44</v>
       </c>
-      <c r="C49" s="7">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
         <v>38.4</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="6">
         <v>75</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H49" s="7">
-        <v>3</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7">
+      <c r="H50" s="6">
+        <v>3</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
         <v>70</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K50" s="5">
         <v>39</v>
       </c>
-      <c r="L49" s="7">
-        <v>1</v>
-      </c>
-      <c r="M49" s="7">
-        <v>2</v>
-      </c>
-      <c r="N49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="M50" s="6">
+        <v>2</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B51" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="7">
-        <v>2</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
         <v>37.5</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="6">
         <v>94</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
         <v>76</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K51" s="5">
         <v>32</v>
       </c>
-      <c r="L50" s="7">
-        <v>1</v>
-      </c>
-      <c r="M50" s="7">
-        <v>3</v>
-      </c>
-      <c r="N50" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="L51" s="6">
+        <v>1</v>
+      </c>
+      <c r="M51" s="6">
+        <v>3</v>
+      </c>
+      <c r="N51" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B52" s="6">
         <v>55</v>
       </c>
-      <c r="C51" s="7">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6">
         <v>33</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="6">
         <v>95</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H51" s="7">
-        <v>2</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
+      <c r="H52" s="6">
+        <v>2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
         <v>71</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K52" s="5">
         <v>36</v>
       </c>
-      <c r="L51" s="7">
-        <v>2</v>
-      </c>
-      <c r="M51" s="7">
-        <v>1</v>
-      </c>
-      <c r="N51" s="7">
+      <c r="L52" s="6">
+        <v>2</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1</v>
+      </c>
+      <c r="N52" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B53" s="6">
         <v>42</v>
       </c>
-      <c r="C52" s="7">
-        <v>2</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
         <v>38.9</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="6">
         <v>86</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>1</v>
-      </c>
-      <c r="J52" s="7">
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6">
         <v>74</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K53" s="5">
         <v>59</v>
       </c>
-      <c r="L52" s="7">
-        <v>2</v>
-      </c>
-      <c r="M52" s="7">
-        <v>3</v>
-      </c>
-      <c r="N52" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="L53" s="6">
+        <v>2</v>
+      </c>
+      <c r="M53" s="6">
+        <v>3</v>
+      </c>
+      <c r="N53" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B54" s="6">
         <v>51</v>
       </c>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
         <v>29.6</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="6">
         <v>86</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H53" s="7">
-        <v>3</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="H54" s="6">
+        <v>3</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
         <v>16</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K54" s="5">
         <v>28</v>
       </c>
-      <c r="L53" s="7">
-        <v>1</v>
-      </c>
-      <c r="M53" s="7">
-        <v>2</v>
-      </c>
-      <c r="N53" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="L54" s="6">
+        <v>1</v>
+      </c>
+      <c r="M54" s="6">
+        <v>2</v>
+      </c>
+      <c r="N54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B55" s="6">
         <v>46</v>
       </c>
-      <c r="C54" s="7">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6">
         <v>30.9</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="6">
         <v>94</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
         <v>70</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K55" s="5">
         <v>69</v>
       </c>
-      <c r="L54" s="7">
-        <v>1</v>
-      </c>
-      <c r="M54" s="7">
-        <v>2</v>
-      </c>
-      <c r="N54" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="L55" s="6">
+        <v>1</v>
+      </c>
+      <c r="M55" s="6">
+        <v>2</v>
+      </c>
+      <c r="N55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B56" s="6">
         <v>22</v>
       </c>
-      <c r="C55" s="7">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
         <v>25.7</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="6">
         <v>82</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1</v>
-      </c>
-      <c r="J55" s="7">
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
         <v>54</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K56" s="5">
         <v>24</v>
       </c>
-      <c r="L55" s="7">
-        <v>1</v>
-      </c>
-      <c r="M55" s="7">
-        <v>3</v>
-      </c>
-      <c r="N55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="L56" s="6">
+        <v>1</v>
+      </c>
+      <c r="M56" s="6">
+        <v>3</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B57" s="6">
         <v>25</v>
       </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
         <v>26</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="6">
         <v>62</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H56" s="7">
-        <v>2</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1</v>
-      </c>
-      <c r="J56" s="7">
+      <c r="H57" s="6">
+        <v>2</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
+      </c>
+      <c r="J57" s="6">
         <v>18</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K57" s="5">
         <v>41</v>
       </c>
-      <c r="L56" s="7">
-        <v>3</v>
-      </c>
-      <c r="M56" s="7">
-        <v>1</v>
-      </c>
-      <c r="N56" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="L57" s="6">
+        <v>3</v>
+      </c>
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B58" s="6">
         <v>29</v>
       </c>
-      <c r="C57" s="7">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7">
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="6">
         <v>90</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
-      <c r="J57" s="7">
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
         <v>14</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K58" s="5">
         <v>25</v>
       </c>
-      <c r="L57" s="7">
-        <v>1</v>
-      </c>
-      <c r="M57" s="7">
-        <v>1</v>
-      </c>
-      <c r="N57" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="L58" s="6">
+        <v>1</v>
+      </c>
+      <c r="M58" s="6">
+        <v>1</v>
+      </c>
+      <c r="N58" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B59" s="6">
         <v>30</v>
       </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
         <v>29.3</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="6">
         <v>61</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H58" s="7">
-        <v>3</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="H59" s="6">
+        <v>3</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
         <v>45</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K59" s="5">
         <v>87</v>
       </c>
-      <c r="L58" s="7">
-        <v>1</v>
-      </c>
-      <c r="M58" s="7">
+      <c r="L59" s="6">
+        <v>1</v>
+      </c>
+      <c r="M59" s="6">
         <v>4</v>
       </c>
-      <c r="N58" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="N59" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B60" s="6">
         <v>35</v>
       </c>
-      <c r="C59" s="7">
-        <v>2</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
         <v>37.200000000000003</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="6">
         <v>82</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H59" s="7">
-        <v>3</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
+      <c r="H60" s="6">
+        <v>3</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
         <v>13</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K60" s="5">
         <v>43</v>
       </c>
-      <c r="L59" s="7">
-        <v>2</v>
-      </c>
-      <c r="M59" s="7">
-        <v>3</v>
-      </c>
-      <c r="N59" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="L60" s="6">
+        <v>2</v>
+      </c>
+      <c r="M60" s="6">
+        <v>3</v>
+      </c>
+      <c r="N60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B61" s="6">
         <v>50</v>
       </c>
-      <c r="C60" s="7">
-        <v>2</v>
-      </c>
-      <c r="D60" s="7">
+      <c r="C61" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="6">
         <v>62</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H60" s="7">
-        <v>2</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="H61" s="6">
+        <v>2</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6">
         <v>89</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K61" s="5">
         <v>95</v>
       </c>
-      <c r="L60" s="7">
-        <v>1</v>
-      </c>
-      <c r="M60" s="7">
+      <c r="L61" s="6">
+        <v>1</v>
+      </c>
+      <c r="M61" s="6">
         <v>4</v>
       </c>
-      <c r="N60" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="N61" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B62" s="6">
         <v>44</v>
       </c>
-      <c r="C61" s="7">
-        <v>2</v>
-      </c>
-      <c r="D61" s="7">
+      <c r="C62" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6">
         <v>20</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="6">
         <v>68</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G62" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>1</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="J62" s="6">
         <v>26</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K62" s="5">
         <v>7</v>
       </c>
-      <c r="L61" s="7">
-        <v>1</v>
-      </c>
-      <c r="M61" s="7">
+      <c r="L62" s="6">
+        <v>1</v>
+      </c>
+      <c r="M62" s="6">
         <v>4</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N62" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B63" s="6">
         <v>42</v>
       </c>
-      <c r="C62" s="7">
-        <v>2</v>
-      </c>
-      <c r="D62" s="7">
+      <c r="C63" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6">
         <v>22</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="6">
         <v>98</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H62" s="7">
-        <v>2</v>
-      </c>
-      <c r="I62" s="7">
-        <v>1</v>
-      </c>
-      <c r="J62" s="7">
+      <c r="H63" s="6">
+        <v>2</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="J63" s="6">
         <v>80</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K63" s="5">
         <v>15</v>
       </c>
-      <c r="L62" s="7">
-        <v>3</v>
-      </c>
-      <c r="M62" s="7">
+      <c r="L63" s="6">
+        <v>3</v>
+      </c>
+      <c r="M63" s="6">
         <v>4</v>
       </c>
-      <c r="N62" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="N63" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B64" s="6">
         <v>55</v>
       </c>
-      <c r="C63" s="7">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7">
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
         <v>35.1</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="6">
         <v>89</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H63" s="7">
-        <v>2</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
+      <c r="H64" s="6">
+        <v>2</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
         <v>32</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K64" s="5">
         <v>38</v>
       </c>
-      <c r="L63" s="7">
-        <v>2</v>
-      </c>
-      <c r="M63" s="7">
-        <v>3</v>
-      </c>
-      <c r="N63" s="7">
+      <c r="L64" s="6">
+        <v>2</v>
+      </c>
+      <c r="M64" s="6">
+        <v>3</v>
+      </c>
+      <c r="N64" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B65" s="6">
         <v>38</v>
       </c>
-      <c r="C64" s="7">
-        <v>1</v>
-      </c>
-      <c r="D64" s="7">
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
         <v>34.299999999999997</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="6">
         <v>90</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G65" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
         <v>49</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K65" s="5">
         <v>95</v>
       </c>
-      <c r="L64" s="7">
-        <v>3</v>
-      </c>
-      <c r="M64" s="7">
-        <v>2</v>
-      </c>
-      <c r="N64" s="7">
+      <c r="L65" s="6">
+        <v>3</v>
+      </c>
+      <c r="M65" s="6">
+        <v>2</v>
+      </c>
+      <c r="N65" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B66" s="6">
         <v>32</v>
       </c>
-      <c r="C65" s="7">
-        <v>1</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6">
         <v>39.4</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="6">
         <v>89</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H65" s="7">
-        <v>2</v>
-      </c>
-      <c r="I65" s="7">
-        <v>1</v>
-      </c>
-      <c r="J65" s="7">
+      <c r="H66" s="6">
+        <v>2</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6">
         <v>17</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K66" s="5">
         <v>64</v>
       </c>
-      <c r="L65" s="7">
-        <v>2</v>
-      </c>
-      <c r="M65" s="7">
+      <c r="L66" s="6">
+        <v>2</v>
+      </c>
+      <c r="M66" s="6">
         <v>4</v>
       </c>
-      <c r="N65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B67" s="6">
         <v>58</v>
       </c>
-      <c r="C66" s="7">
-        <v>2</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C67" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" s="6">
         <v>28.5</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="6">
         <v>68</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H66" s="7">
-        <v>2</v>
-      </c>
-      <c r="I66" s="7">
-        <v>1</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="H67" s="6">
+        <v>2</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
         <v>19</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K67" s="5">
         <v>93</v>
       </c>
-      <c r="L66" s="7">
-        <v>3</v>
-      </c>
-      <c r="M66" s="7">
-        <v>3</v>
-      </c>
-      <c r="N66" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="L67" s="6">
+        <v>3</v>
+      </c>
+      <c r="M67" s="6">
+        <v>3</v>
+      </c>
+      <c r="N67" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B68" s="6">
         <v>64</v>
       </c>
-      <c r="C67" s="7">
-        <v>2</v>
-      </c>
-      <c r="D67" s="7">
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="6">
         <v>95</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F68" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G68" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H67" s="7">
-        <v>2</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
+      <c r="H68" s="6">
+        <v>2</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
         <v>90</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K68" s="5">
         <v>57</v>
       </c>
-      <c r="L67" s="7">
-        <v>1</v>
-      </c>
-      <c r="M67" s="7">
-        <v>3</v>
-      </c>
-      <c r="N67" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="L68" s="6">
+        <v>1</v>
+      </c>
+      <c r="M68" s="6">
+        <v>3</v>
+      </c>
+      <c r="N68" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B69" s="6">
         <v>43</v>
       </c>
-      <c r="C68" s="7">
-        <v>2</v>
-      </c>
-      <c r="D68" s="7">
+      <c r="C69" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6">
         <v>32.4</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="6">
         <v>93</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F69" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G69" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H68" s="7">
-        <v>2</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
+      <c r="H69" s="6">
+        <v>2</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
         <v>41</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K69" s="5">
         <v>88</v>
       </c>
-      <c r="L68" s="7">
-        <v>2</v>
-      </c>
-      <c r="M68" s="7">
-        <v>3</v>
-      </c>
-      <c r="N68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="L69" s="6">
+        <v>2</v>
+      </c>
+      <c r="M69" s="6">
+        <v>3</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B70" s="6">
         <v>48</v>
       </c>
-      <c r="C69" s="7">
-        <v>2</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6">
         <v>34.799999999999997</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="6">
         <v>81</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F70" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G70" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H69" s="7">
-        <v>2</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
+      <c r="H70" s="6">
+        <v>2</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
         <v>73</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K70" s="5">
         <v>55</v>
       </c>
-      <c r="L69" s="7">
-        <v>2</v>
-      </c>
-      <c r="M69" s="7">
-        <v>1</v>
-      </c>
-      <c r="N69" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="L70" s="6">
+        <v>2</v>
+      </c>
+      <c r="M70" s="6">
+        <v>1</v>
+      </c>
+      <c r="N70" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B71" s="6">
         <v>33</v>
       </c>
-      <c r="C70" s="7">
-        <v>1</v>
-      </c>
-      <c r="D70" s="7">
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6">
         <v>21.4</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="6">
         <v>100</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F71" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
-      <c r="I70" s="7">
-        <v>1</v>
-      </c>
-      <c r="J70" s="7">
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6">
         <v>52</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K71" s="5">
         <v>42</v>
       </c>
-      <c r="L70" s="7">
-        <v>2</v>
-      </c>
-      <c r="M70" s="7">
+      <c r="L71" s="6">
+        <v>2</v>
+      </c>
+      <c r="M71" s="6">
         <v>4</v>
       </c>
-      <c r="N70" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="N71" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B72" s="6">
         <v>69</v>
       </c>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
-      <c r="D71" s="7">
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6">
         <v>27</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="6">
         <v>87</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G72" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H71" s="7">
-        <v>2</v>
-      </c>
-      <c r="I71" s="7">
-        <v>1</v>
-      </c>
-      <c r="J71" s="7">
+      <c r="H72" s="6">
+        <v>2</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="J72" s="6">
         <v>62</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K72" s="5">
         <v>66</v>
       </c>
-      <c r="L71" s="7">
-        <v>2</v>
-      </c>
-      <c r="M71" s="7">
-        <v>1</v>
-      </c>
-      <c r="N71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="L72" s="6">
+        <v>2</v>
+      </c>
+      <c r="M72" s="6">
+        <v>1</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B73" s="6">
         <v>47</v>
       </c>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="7">
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6">
         <v>23.3</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="6">
         <v>88</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H72" s="7">
-        <v>1</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
         <v>72</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K73" s="5">
         <v>55</v>
       </c>
-      <c r="L72" s="7">
-        <v>2</v>
-      </c>
-      <c r="M72" s="7">
-        <v>3</v>
-      </c>
-      <c r="N72" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="L73" s="6">
+        <v>2</v>
+      </c>
+      <c r="M73" s="6">
+        <v>3</v>
+      </c>
+      <c r="N73" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B74" s="6">
         <v>23</v>
       </c>
-      <c r="C73" s="7">
-        <v>1</v>
-      </c>
-      <c r="D73" s="7">
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
         <v>19.7</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="6">
         <v>98</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G74" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H73" s="7">
-        <v>2</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
+      <c r="H74" s="6">
+        <v>2</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
         <v>30</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K74" s="5">
         <v>21</v>
       </c>
-      <c r="L73" s="7">
-        <v>1</v>
-      </c>
-      <c r="M73" s="7">
-        <v>1</v>
-      </c>
-      <c r="N73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="L74" s="6">
+        <v>1</v>
+      </c>
+      <c r="M74" s="6">
+        <v>1</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B75" s="6">
         <v>60</v>
       </c>
-      <c r="C74" s="7">
-        <v>2</v>
-      </c>
-      <c r="D74" s="7">
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6">
         <v>27</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="6">
         <v>96</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H74" s="7">
-        <v>3</v>
-      </c>
-      <c r="I74" s="7">
-        <v>1</v>
-      </c>
-      <c r="J74" s="7">
+      <c r="H75" s="6">
+        <v>3</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6">
         <v>82</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K75" s="5">
         <v>16</v>
       </c>
-      <c r="L74" s="7">
-        <v>3</v>
-      </c>
-      <c r="M74" s="7">
-        <v>1</v>
-      </c>
-      <c r="N74" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="L75" s="6">
+        <v>3</v>
+      </c>
+      <c r="M75" s="6">
+        <v>1</v>
+      </c>
+      <c r="N75" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B76" s="6">
         <v>25</v>
       </c>
-      <c r="C75" s="7">
-        <v>2</v>
-      </c>
-      <c r="D75" s="7">
+      <c r="C76" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="6">
         <v>92</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H75" s="7">
-        <v>1</v>
-      </c>
-      <c r="I75" s="7">
-        <v>0</v>
-      </c>
-      <c r="J75" s="7">
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
         <v>54</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K76" s="5">
         <v>83</v>
       </c>
-      <c r="L75" s="7">
-        <v>2</v>
-      </c>
-      <c r="M75" s="7">
-        <v>3</v>
-      </c>
-      <c r="N75" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="L76" s="6">
+        <v>2</v>
+      </c>
+      <c r="M76" s="6">
+        <v>3</v>
+      </c>
+      <c r="N76" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B77" s="6">
         <v>39</v>
       </c>
-      <c r="C76" s="7">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7">
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
         <v>23.4</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="6">
         <v>78</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="J76" s="7">
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
         <v>17</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K77" s="5">
         <v>98</v>
       </c>
-      <c r="L76" s="7">
-        <v>3</v>
-      </c>
-      <c r="M76" s="7">
-        <v>2</v>
-      </c>
-      <c r="N76" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="L77" s="6">
+        <v>3</v>
+      </c>
+      <c r="M77" s="6">
+        <v>2</v>
+      </c>
+      <c r="N77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B78" s="6">
         <v>39</v>
       </c>
-      <c r="C77" s="7">
-        <v>1</v>
-      </c>
-      <c r="D77" s="7">
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6">
         <v>19.7</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="6">
         <v>71</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F78" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G78" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H77" s="7">
-        <v>3</v>
-      </c>
-      <c r="I77" s="7">
-        <v>1</v>
-      </c>
-      <c r="J77" s="7">
+      <c r="H78" s="6">
+        <v>3</v>
+      </c>
+      <c r="I78" s="6">
+        <v>1</v>
+      </c>
+      <c r="J78" s="6">
         <v>43</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K78" s="5">
         <v>13</v>
       </c>
-      <c r="L77" s="7">
-        <v>2</v>
-      </c>
-      <c r="M77" s="7">
-        <v>2</v>
-      </c>
-      <c r="N77" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="L78" s="6">
+        <v>2</v>
+      </c>
+      <c r="M78" s="6">
+        <v>2</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B79" s="6">
         <v>56</v>
       </c>
-      <c r="C78" s="7">
-        <v>2</v>
-      </c>
-      <c r="D78" s="7">
+      <c r="C79" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" s="6">
         <v>32.9</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="6">
         <v>93</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F79" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G79" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H78" s="7">
-        <v>3</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7">
+      <c r="H79" s="6">
+        <v>3</v>
+      </c>
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
         <v>91</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K79" s="5">
         <v>100</v>
       </c>
-      <c r="L78" s="7">
-        <v>1</v>
-      </c>
-      <c r="M78" s="7">
-        <v>1</v>
-      </c>
-      <c r="N78" s="7">
+      <c r="L79" s="6">
+        <v>1</v>
+      </c>
+      <c r="M79" s="6">
+        <v>1</v>
+      </c>
+      <c r="N79" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B80" s="6">
         <v>48</v>
       </c>
-      <c r="C79" s="7">
-        <v>2</v>
-      </c>
-      <c r="D79" s="7">
+      <c r="C80" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" s="6">
         <v>24.9</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="6">
         <v>80</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G80" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H79" s="7">
-        <v>0</v>
-      </c>
-      <c r="I79" s="7">
-        <v>1</v>
-      </c>
-      <c r="J79" s="7">
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>1</v>
+      </c>
+      <c r="J80" s="6">
         <v>20</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K80" s="5">
         <v>63</v>
       </c>
-      <c r="L79" s="7">
-        <v>3</v>
-      </c>
-      <c r="M79" s="7">
-        <v>2</v>
-      </c>
-      <c r="N79" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="L80" s="6">
+        <v>3</v>
+      </c>
+      <c r="M80" s="6">
+        <v>2</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B81" s="6">
         <v>65</v>
       </c>
-      <c r="C80" s="7">
-        <v>1</v>
-      </c>
-      <c r="D80" s="7">
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6">
         <v>20.7</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="6">
         <v>76</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G81" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H80" s="7">
-        <v>2</v>
-      </c>
-      <c r="I80" s="7">
-        <v>0</v>
-      </c>
-      <c r="J80" s="7">
+      <c r="H81" s="6">
+        <v>2</v>
+      </c>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
         <v>28</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K81" s="5">
         <v>23</v>
       </c>
-      <c r="L80" s="7">
-        <v>2</v>
-      </c>
-      <c r="M80" s="7">
+      <c r="L81" s="6">
+        <v>2</v>
+      </c>
+      <c r="M81" s="6">
         <v>4</v>
       </c>
-      <c r="N80" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="N81" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B82" s="6">
         <v>34</v>
       </c>
-      <c r="C81" s="7">
-        <v>1</v>
-      </c>
-      <c r="D81" s="7">
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6">
         <v>20</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="6">
         <v>71</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F82" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G82" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H81" s="7">
-        <v>3</v>
-      </c>
-      <c r="I81" s="7">
-        <v>0</v>
-      </c>
-      <c r="J81" s="7">
+      <c r="H82" s="6">
+        <v>3</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
         <v>35</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K82" s="5">
         <v>93</v>
       </c>
-      <c r="L81" s="7">
-        <v>3</v>
-      </c>
-      <c r="M81" s="7">
-        <v>3</v>
-      </c>
-      <c r="N81" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="L82" s="6">
+        <v>3</v>
+      </c>
+      <c r="M82" s="6">
+        <v>3</v>
+      </c>
+      <c r="N82" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B83" s="6">
         <v>67</v>
       </c>
-      <c r="C82" s="7">
-        <v>2</v>
-      </c>
-      <c r="D82" s="7">
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" s="6">
         <v>37.4</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="6">
         <v>89</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F83" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G83" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H82" s="7">
-        <v>3</v>
-      </c>
-      <c r="I82" s="7">
-        <v>1</v>
-      </c>
-      <c r="J82" s="7">
+      <c r="H83" s="6">
+        <v>3</v>
+      </c>
+      <c r="I83" s="6">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6">
         <v>83</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K83" s="5">
         <v>7</v>
       </c>
-      <c r="L82" s="7">
-        <v>2</v>
-      </c>
-      <c r="M82" s="7">
-        <v>1</v>
-      </c>
-      <c r="N82" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="L83" s="6">
+        <v>2</v>
+      </c>
+      <c r="M83" s="6">
+        <v>1</v>
+      </c>
+      <c r="N83" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B84" s="6">
         <v>66</v>
       </c>
-      <c r="C83" s="7">
-        <v>2</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="C84" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" s="6">
         <v>34.700000000000003</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="6">
         <v>94</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G84" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H83" s="7">
-        <v>0</v>
-      </c>
-      <c r="I83" s="7">
-        <v>1</v>
-      </c>
-      <c r="J83" s="7">
+      <c r="H84" s="6">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6">
         <v>22</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K84" s="5">
         <v>19</v>
       </c>
-      <c r="L83" s="7">
-        <v>3</v>
-      </c>
-      <c r="M83" s="7">
-        <v>1</v>
-      </c>
-      <c r="N83" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="L84" s="6">
+        <v>3</v>
+      </c>
+      <c r="M84" s="6">
+        <v>1</v>
+      </c>
+      <c r="N84" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B85" s="6">
         <v>51</v>
       </c>
-      <c r="C84" s="7">
-        <v>1</v>
-      </c>
-      <c r="D84" s="7">
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6">
         <v>36.1</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="6">
         <v>89</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G85" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H84" s="7">
-        <v>1</v>
-      </c>
-      <c r="I84" s="7">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7">
+      <c r="H85" s="6">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
         <v>41</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K85" s="5">
         <v>73</v>
       </c>
-      <c r="L84" s="7">
-        <v>3</v>
-      </c>
-      <c r="M84" s="7">
-        <v>1</v>
-      </c>
-      <c r="N84" s="7">
+      <c r="L85" s="6">
+        <v>3</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="N85" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B86" s="6">
         <v>21</v>
       </c>
-      <c r="C85" s="7">
-        <v>1</v>
-      </c>
-      <c r="D85" s="7">
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6">
         <v>39.6</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="6">
         <v>84</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G86" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H85" s="7">
-        <v>0</v>
-      </c>
-      <c r="I85" s="7">
-        <v>1</v>
-      </c>
-      <c r="J85" s="7">
+      <c r="H86" s="6">
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6">
         <v>68</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K86" s="5">
         <v>85</v>
       </c>
-      <c r="L85" s="7">
-        <v>2</v>
-      </c>
-      <c r="M85" s="7">
+      <c r="L86" s="6">
+        <v>2</v>
+      </c>
+      <c r="M86" s="6">
         <v>4</v>
       </c>
-      <c r="N85" s="7">
+      <c r="N86" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B87" s="6">
         <v>30</v>
       </c>
-      <c r="C86" s="7">
-        <v>2</v>
-      </c>
-      <c r="D86" s="7">
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6">
         <v>20.7</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="6">
         <v>62</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G87" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H86" s="7">
-        <v>1</v>
-      </c>
-      <c r="I86" s="7">
-        <v>1</v>
-      </c>
-      <c r="J86" s="7">
+      <c r="H87" s="6">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6">
         <v>65</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K87" s="5">
         <v>49</v>
       </c>
-      <c r="L86" s="7">
-        <v>2</v>
-      </c>
-      <c r="M86" s="7">
-        <v>1</v>
-      </c>
-      <c r="N86" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="L87" s="6">
+        <v>2</v>
+      </c>
+      <c r="M87" s="6">
+        <v>1</v>
+      </c>
+      <c r="N87" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B88" s="6">
         <v>22</v>
       </c>
-      <c r="C87" s="7">
-        <v>1</v>
-      </c>
-      <c r="D87" s="7">
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6">
         <v>20.6</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="6">
         <v>77</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F88" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G88" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H87" s="7">
-        <v>3</v>
-      </c>
-      <c r="I87" s="7">
-        <v>1</v>
-      </c>
-      <c r="J87" s="7">
+      <c r="H88" s="6">
+        <v>3</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1</v>
+      </c>
+      <c r="J88" s="6">
         <v>81</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K88" s="5">
         <v>16</v>
       </c>
-      <c r="L87" s="7">
-        <v>2</v>
-      </c>
-      <c r="M87" s="7">
+      <c r="L88" s="6">
+        <v>2</v>
+      </c>
+      <c r="M88" s="6">
         <v>4</v>
       </c>
-      <c r="N87" s="7">
+      <c r="N88" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B89" s="6">
         <v>68</v>
       </c>
-      <c r="C88" s="7">
-        <v>2</v>
-      </c>
-      <c r="D88" s="7">
+      <c r="C89" s="6">
+        <v>2</v>
+      </c>
+      <c r="D89" s="6">
         <v>35.700000000000003</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="6">
         <v>91</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F89" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G89" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H88" s="7">
-        <v>1</v>
-      </c>
-      <c r="I88" s="7">
-        <v>1</v>
-      </c>
-      <c r="J88" s="7">
+      <c r="H89" s="6">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6">
         <v>75</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K89" s="5">
         <v>8</v>
       </c>
-      <c r="L88" s="7">
-        <v>3</v>
-      </c>
-      <c r="M88" s="7">
-        <v>1</v>
-      </c>
-      <c r="N88" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="L89" s="6">
+        <v>3</v>
+      </c>
+      <c r="M89" s="6">
+        <v>1</v>
+      </c>
+      <c r="N89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B90" s="6">
         <v>42</v>
       </c>
-      <c r="C89" s="7">
-        <v>2</v>
-      </c>
-      <c r="D89" s="7">
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="6">
         <v>35.4</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E90" s="6">
         <v>76</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H89" s="7">
-        <v>0</v>
-      </c>
-      <c r="I89" s="7">
-        <v>1</v>
-      </c>
-      <c r="J89" s="7">
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6">
         <v>61</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K90" s="5">
         <v>34</v>
       </c>
-      <c r="L89" s="7">
-        <v>1</v>
-      </c>
-      <c r="M89" s="7">
-        <v>1</v>
-      </c>
-      <c r="N89" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+      <c r="L90" s="6">
+        <v>1</v>
+      </c>
+      <c r="M90" s="6">
+        <v>1</v>
+      </c>
+      <c r="N90" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B91" s="6">
         <v>69</v>
       </c>
-      <c r="C90" s="7">
-        <v>2</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" s="6">
         <v>18.7</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="6">
         <v>97</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G91" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H90" s="7">
-        <v>0</v>
-      </c>
-      <c r="I90" s="7">
-        <v>1</v>
-      </c>
-      <c r="J90" s="7">
+      <c r="H91" s="6">
+        <v>0</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+      <c r="J91" s="6">
         <v>63</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K91" s="5">
         <v>100</v>
       </c>
-      <c r="L90" s="7">
-        <v>1</v>
-      </c>
-      <c r="M90" s="7">
-        <v>2</v>
-      </c>
-      <c r="N90" s="7">
+      <c r="L91" s="6">
+        <v>1</v>
+      </c>
+      <c r="M91" s="6">
+        <v>2</v>
+      </c>
+      <c r="N91" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B92" s="6">
         <v>39</v>
       </c>
-      <c r="C91" s="7">
-        <v>2</v>
-      </c>
-      <c r="D91" s="7">
+      <c r="C92" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E92" s="6">
         <v>99</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F92" s="7">
         <v>51159</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G92" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H91" s="7">
-        <v>3</v>
-      </c>
-      <c r="I91" s="7">
-        <v>1</v>
-      </c>
-      <c r="J91" s="7">
+      <c r="H92" s="6">
+        <v>3</v>
+      </c>
+      <c r="I92" s="6">
+        <v>1</v>
+      </c>
+      <c r="J92" s="6">
         <v>76</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K92" s="5">
         <v>84</v>
       </c>
-      <c r="L91" s="7">
-        <v>1</v>
-      </c>
-      <c r="M91" s="7">
-        <v>2</v>
-      </c>
-      <c r="N91" s="7">
+      <c r="L92" s="6">
+        <v>1</v>
+      </c>
+      <c r="M92" s="6">
+        <v>2</v>
+      </c>
+      <c r="N92" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B93" s="6">
         <v>42</v>
       </c>
-      <c r="C92" s="7">
-        <v>1</v>
-      </c>
-      <c r="D92" s="7">
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E93" s="6">
         <v>91</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G93" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H92" s="7">
-        <v>1</v>
-      </c>
-      <c r="I92" s="7">
-        <v>0</v>
-      </c>
-      <c r="J92" s="7">
+      <c r="H93" s="6">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
         <v>50</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K93" s="5">
         <v>62</v>
       </c>
-      <c r="L92" s="7">
-        <v>3</v>
-      </c>
-      <c r="M92" s="7">
-        <v>2</v>
-      </c>
-      <c r="N92" s="7">
+      <c r="L93" s="6">
+        <v>3</v>
+      </c>
+      <c r="M93" s="6">
+        <v>2</v>
+      </c>
+      <c r="N93" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B94" s="6">
         <v>49</v>
       </c>
-      <c r="C93" s="7">
-        <v>2</v>
-      </c>
-      <c r="D93" s="7">
+      <c r="C94" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" s="6">
         <v>32</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E94" s="6">
         <v>85</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F94" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G94" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H93" s="7">
-        <v>3</v>
-      </c>
-      <c r="I93" s="7">
-        <v>0</v>
-      </c>
-      <c r="J93" s="7">
+      <c r="H94" s="6">
+        <v>3</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
         <v>17</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K94" s="5">
         <v>56</v>
       </c>
-      <c r="L93" s="7">
-        <v>1</v>
-      </c>
-      <c r="M93" s="7">
+      <c r="L94" s="6">
+        <v>1</v>
+      </c>
+      <c r="M94" s="6">
         <v>4</v>
       </c>
-      <c r="N93" s="7">
+      <c r="N94" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B95" s="6">
         <v>63</v>
       </c>
-      <c r="C94" s="7">
-        <v>2</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="C95" s="6">
+        <v>2</v>
+      </c>
+      <c r="D95" s="6">
         <v>28.8</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E95" s="6">
         <v>72</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F95" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G95" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H94" s="7">
-        <v>2</v>
-      </c>
-      <c r="I94" s="7">
-        <v>1</v>
-      </c>
-      <c r="J94" s="7">
+      <c r="H95" s="6">
+        <v>2</v>
+      </c>
+      <c r="I95" s="6">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6">
         <v>9</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K95" s="5">
         <v>15</v>
       </c>
-      <c r="L94" s="7">
-        <v>2</v>
-      </c>
-      <c r="M94" s="7">
-        <v>3</v>
-      </c>
-      <c r="N94" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="L95" s="6">
+        <v>2</v>
+      </c>
+      <c r="M95" s="6">
+        <v>3</v>
+      </c>
+      <c r="N95" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B96" s="6">
         <v>42</v>
       </c>
-      <c r="C95" s="7">
-        <v>2</v>
-      </c>
-      <c r="D95" s="7">
+      <c r="C96" s="6">
+        <v>2</v>
+      </c>
+      <c r="D96" s="6">
         <v>21.9</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E96" s="6">
         <v>79</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G96" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H95" s="7">
-        <v>0</v>
-      </c>
-      <c r="I95" s="7">
-        <v>0</v>
-      </c>
-      <c r="J95" s="7">
+      <c r="H96" s="6">
+        <v>0</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
         <v>72</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K96" s="5">
         <v>51</v>
       </c>
-      <c r="L95" s="7">
-        <v>3</v>
-      </c>
-      <c r="M95" s="7">
-        <v>2</v>
-      </c>
-      <c r="N95" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="L96" s="6">
+        <v>3</v>
+      </c>
+      <c r="M96" s="6">
+        <v>2</v>
+      </c>
+      <c r="N96" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B97" s="6">
         <v>40</v>
       </c>
-      <c r="C96" s="7">
-        <v>1</v>
-      </c>
-      <c r="D96" s="7">
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6">
         <v>18.7</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E97" s="6">
         <v>97</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H96" s="7">
-        <v>1</v>
-      </c>
-      <c r="I96" s="7">
-        <v>1</v>
-      </c>
-      <c r="J96" s="7">
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6">
         <v>98</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K97" s="5">
         <v>89</v>
       </c>
-      <c r="L96" s="7">
-        <v>1</v>
-      </c>
-      <c r="M96" s="7">
+      <c r="L97" s="6">
+        <v>1</v>
+      </c>
+      <c r="M97" s="6">
         <v>4</v>
       </c>
-      <c r="N96" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="N97" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B98" s="6">
         <v>52</v>
       </c>
-      <c r="C97" s="7">
-        <v>2</v>
-      </c>
-      <c r="D97" s="7">
+      <c r="C98" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" s="6">
         <v>28.2</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E98" s="6">
         <v>79</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G98" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H97" s="7">
-        <v>0</v>
-      </c>
-      <c r="I97" s="7">
-        <v>1</v>
-      </c>
-      <c r="J97" s="7">
+      <c r="H98" s="6">
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
         <v>92</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K98" s="5">
         <v>98</v>
       </c>
-      <c r="L97" s="7">
-        <v>2</v>
-      </c>
-      <c r="M97" s="7">
-        <v>2</v>
-      </c>
-      <c r="N97" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="L98" s="6">
+        <v>2</v>
+      </c>
+      <c r="M98" s="6">
+        <v>2</v>
+      </c>
+      <c r="N98" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B99" s="6">
         <v>57</v>
       </c>
-      <c r="C98" s="7">
-        <v>2</v>
-      </c>
-      <c r="D98" s="7">
+      <c r="C99" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6">
         <v>29.1</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E99" s="6">
         <v>88</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F99" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H98" s="7">
-        <v>3</v>
-      </c>
-      <c r="I98" s="7">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
+      <c r="H99" s="6">
+        <v>3</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
         <v>85</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K99" s="5">
         <v>34</v>
       </c>
-      <c r="L98" s="7">
-        <v>2</v>
-      </c>
-      <c r="M98" s="7">
-        <v>2</v>
-      </c>
-      <c r="N98" s="7">
+      <c r="L99" s="6">
+        <v>2</v>
+      </c>
+      <c r="M99" s="6">
+        <v>2</v>
+      </c>
+      <c r="N99" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B100" s="6">
         <v>65</v>
       </c>
-      <c r="C99" s="7">
-        <v>2</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="C100" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" s="6">
         <v>26.9</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E100" s="6">
         <v>79</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F100" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G100" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H99" s="7">
-        <v>3</v>
-      </c>
-      <c r="I99" s="7">
-        <v>0</v>
-      </c>
-      <c r="J99" s="7">
+      <c r="H100" s="6">
+        <v>3</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
         <v>82</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K100" s="5">
         <v>53</v>
       </c>
-      <c r="L99" s="7">
-        <v>3</v>
-      </c>
-      <c r="M99" s="7">
-        <v>1</v>
-      </c>
-      <c r="N99" s="7">
+      <c r="L100" s="6">
+        <v>3</v>
+      </c>
+      <c r="M100" s="6">
+        <v>1</v>
+      </c>
+      <c r="N100" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B101" s="6">
         <v>47</v>
       </c>
-      <c r="C100" s="7">
-        <v>1</v>
-      </c>
-      <c r="D100" s="7">
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
         <v>28.5</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E101" s="6">
         <v>89</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F101" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G101" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H100" s="7">
-        <v>1</v>
-      </c>
-      <c r="I100" s="7">
-        <v>1</v>
-      </c>
-      <c r="J100" s="7">
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
         <v>71</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K101" s="5">
         <v>25</v>
       </c>
-      <c r="L100" s="7">
-        <v>2</v>
-      </c>
-      <c r="M100" s="7">
-        <v>2</v>
-      </c>
-      <c r="N100" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="L101" s="6">
+        <v>2</v>
+      </c>
+      <c r="M101" s="6">
+        <v>2</v>
+      </c>
+      <c r="N101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B102" s="6">
         <v>29</v>
       </c>
-      <c r="C101" s="7">
-        <v>1</v>
-      </c>
-      <c r="D101" s="7">
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6">
         <v>33.799999999999997</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E102" s="6">
         <v>100</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F102" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G102" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H101" s="7">
-        <v>3</v>
-      </c>
-      <c r="I101" s="7">
-        <v>0</v>
-      </c>
-      <c r="J101" s="7">
+      <c r="H102" s="6">
+        <v>3</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
         <v>96</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K102" s="5">
         <v>12</v>
       </c>
-      <c r="L101" s="7">
-        <v>2</v>
-      </c>
-      <c r="M101" s="7">
+      <c r="L102" s="6">
+        <v>2</v>
+      </c>
+      <c r="M102" s="6">
         <v>4</v>
       </c>
-      <c r="N101" s="7">
+      <c r="N102" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5977,7 +6014,7 @@
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -5986,41 +6023,41 @@
     <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6034,7 +6071,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>318</v>
       </c>
       <c r="K2">
@@ -6054,7 +6091,7 @@
       <c r="C3" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G3">
@@ -6086,7 +6123,7 @@
       <c r="C4" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E4">
@@ -6114,7 +6151,7 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G6">
@@ -6146,7 +6183,7 @@
       <c r="C7" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G7">
@@ -6178,7 +6215,7 @@
       <c r="C8" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G8" s="1">
@@ -6210,7 +6247,7 @@
       <c r="C9" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G9" s="1">
@@ -6242,7 +6279,7 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E10">
@@ -6280,7 +6317,7 @@
       <c r="C14" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E14">
@@ -6308,7 +6345,7 @@
       <c r="C16" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G16">
@@ -6340,7 +6377,7 @@
       <c r="C17" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G17">
@@ -6372,7 +6409,7 @@
       <c r="C18" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E18">
@@ -6414,7 +6451,7 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E21">
@@ -6464,7 +6501,7 @@
       <c r="C25" t="s">
         <v>333</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E25">
